--- a/GPDB6_Install_SOP_v2.2.xlsx
+++ b/GPDB6_Install_SOP_v2.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhyun/zhyundata/32_GPDB_Docs/91_SOP/install_repository/github_gpdb6_install-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CEEE9D-F12D-4A4F-BABD-0E347AB0F645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C82A99C-66A4-0E4D-A6B3-4ED1CF46353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3801,7 +3801,7 @@
       </rPr>
       <t xml:space="preserve">
 [~]$ sh /data/staging/crt_expand_map_gp6.sh
-[~]$ cp /data/staging/crt_expand_map.out /home/gpadmin/gpconfigs/gpexpand_map
+[~]$ cp /data/staging/result_expand_map.out /home/gpadmin/gpconfigs/gpexpand_map
 </t>
     </r>
     <r>
@@ -7398,8 +7398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="17"/>
